--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Ldlr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H2">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I2">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J2">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N2">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O2">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P2">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q2">
-        <v>613.017829390851</v>
+        <v>0.5497711170734999</v>
       </c>
       <c r="R2">
-        <v>613.017829390851</v>
+        <v>2.199084468294</v>
       </c>
       <c r="S2">
-        <v>0.03671427986423319</v>
+        <v>2.50806337866538E-05</v>
       </c>
       <c r="T2">
-        <v>0.03671427986423319</v>
+        <v>1.192551508128827E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H3">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I3">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J3">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N3">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O3">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P3">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q3">
-        <v>3257.131339547604</v>
+        <v>3.094188740626</v>
       </c>
       <c r="R3">
-        <v>3257.131339547604</v>
+        <v>18.565132443756</v>
       </c>
       <c r="S3">
-        <v>0.1950730073765457</v>
+        <v>0.0001411573148540889</v>
       </c>
       <c r="T3">
-        <v>0.1950730073765457</v>
+        <v>0.000100677700259455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H4">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I4">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J4">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N4">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O4">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P4">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q4">
-        <v>2129.41279769518</v>
+        <v>2.177860276086</v>
       </c>
       <c r="R4">
-        <v>2129.41279769518</v>
+        <v>13.067161656516</v>
       </c>
       <c r="S4">
-        <v>0.1275327627562596</v>
+        <v>9.935428458623657E-05</v>
       </c>
       <c r="T4">
-        <v>0.1275327627562596</v>
+        <v>7.086250467009337E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H5">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I5">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J5">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N5">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O5">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P5">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q5">
-        <v>2407.486476493088</v>
+        <v>2.291920434885999</v>
       </c>
       <c r="R5">
-        <v>2407.486476493088</v>
+        <v>13.751522609316</v>
       </c>
       <c r="S5">
-        <v>0.1441868866280043</v>
+        <v>0.0001045577246791579</v>
       </c>
       <c r="T5">
-        <v>0.1441868866280043</v>
+        <v>7.457375677583562E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H6">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I6">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J6">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N6">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O6">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P6">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q6">
-        <v>429.9866896555574</v>
+        <v>0.4144859434529999</v>
       </c>
       <c r="R6">
-        <v>429.9866896555574</v>
+        <v>2.486915660718</v>
       </c>
       <c r="S6">
-        <v>0.02575235320251018</v>
+        <v>1.890890560565877E-05</v>
       </c>
       <c r="T6">
-        <v>0.02575235320251018</v>
+        <v>1.348640793265767E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H7">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I7">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J7">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N7">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O7">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P7">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q7">
-        <v>1419.060471658024</v>
+        <v>1.388250199878</v>
       </c>
       <c r="R7">
-        <v>1419.060471658024</v>
+        <v>5.553000799512</v>
       </c>
       <c r="S7">
-        <v>0.08498901794176922</v>
+        <v>6.333216457919913E-05</v>
       </c>
       <c r="T7">
-        <v>0.08498901794176922</v>
+        <v>3.011362034326949E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H8">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I8">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J8">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N8">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O8">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P8">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q8">
-        <v>381.0748886597389</v>
+        <v>3.482853738506333</v>
       </c>
       <c r="R8">
-        <v>381.0748886597389</v>
+        <v>20.897122431038</v>
       </c>
       <c r="S8">
-        <v>0.02282297421167627</v>
+        <v>0.0001588882653802221</v>
       </c>
       <c r="T8">
-        <v>0.02282297421167627</v>
+        <v>0.0001133239547183932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H9">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I9">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J9">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N9">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O9">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P9">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q9">
-        <v>2024.755077354971</v>
+        <v>19.60198796964578</v>
       </c>
       <c r="R9">
-        <v>2024.755077354971</v>
+        <v>176.417891726812</v>
       </c>
       <c r="S9">
-        <v>0.1212647022687837</v>
+        <v>0.0008942453804668537</v>
       </c>
       <c r="T9">
-        <v>0.1212647022687837</v>
+        <v>0.0009567046008147726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H10">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I10">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J10">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N10">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O10">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P10">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q10">
-        <v>1323.722909656083</v>
+        <v>13.79695762281467</v>
       </c>
       <c r="R10">
-        <v>1323.722909656083</v>
+        <v>124.172618605332</v>
       </c>
       <c r="S10">
-        <v>0.07927915149891047</v>
+        <v>0.0006294190996242058</v>
       </c>
       <c r="T10">
-        <v>0.07927915149891047</v>
+        <v>0.0006733813353744123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H11">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I11">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J11">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N11">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O11">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P11">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q11">
-        <v>1496.583944207745</v>
+        <v>14.51953987232578</v>
       </c>
       <c r="R11">
-        <v>1496.583944207745</v>
+        <v>130.675858850932</v>
       </c>
       <c r="S11">
-        <v>0.08963197990923095</v>
+        <v>0.000662383400981459</v>
       </c>
       <c r="T11">
-        <v>0.08963197990923095</v>
+        <v>0.0007086480523852002</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H12">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I12">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J12">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N12">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O12">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P12">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q12">
-        <v>267.2958632353063</v>
+        <v>2.625808946454</v>
       </c>
       <c r="R12">
-        <v>267.2958632353063</v>
+        <v>23.632280518086</v>
       </c>
       <c r="S12">
-        <v>0.01600862920924254</v>
+        <v>0.0001197897643846711</v>
       </c>
       <c r="T12">
-        <v>0.01600862920924254</v>
+        <v>0.0001281565677840036</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H13">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I13">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J13">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N13">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O13">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P13">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q13">
-        <v>882.1412450203503</v>
+        <v>8.794700646270666</v>
       </c>
       <c r="R13">
-        <v>882.1412450203503</v>
+        <v>52.768203877624</v>
       </c>
       <c r="S13">
-        <v>0.052832363100504</v>
+        <v>0.0004012154500704204</v>
       </c>
       <c r="T13">
-        <v>0.052832363100504</v>
+        <v>0.000286159090397872</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H14">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I14">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J14">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N14">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O14">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P14">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q14">
-        <v>3.904055627241156</v>
+        <v>729.8023859197074</v>
       </c>
       <c r="R14">
-        <v>3.904055627241156</v>
+        <v>4378.814315518243</v>
       </c>
       <c r="S14">
-        <v>0.0002338179805414408</v>
+        <v>0.033293684970779</v>
       </c>
       <c r="T14">
-        <v>0.0002338179805414408</v>
+        <v>0.02374607110857574</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H15">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I15">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J15">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N15">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O15">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P15">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q15">
-        <v>20.7433149986194</v>
+        <v>4107.429901765563</v>
       </c>
       <c r="R15">
-        <v>20.7433149986194</v>
+        <v>36966.86911589006</v>
       </c>
       <c r="S15">
-        <v>0.00124233886138031</v>
+        <v>0.1873815156367353</v>
       </c>
       <c r="T15">
-        <v>0.00124233886138031</v>
+        <v>0.2004693141648884</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H16">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I16">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J16">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N16">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O16">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P16">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q16">
-        <v>13.56134457593522</v>
+        <v>2891.035153225091</v>
       </c>
       <c r="R16">
-        <v>13.56134457593522</v>
+        <v>26019.31637902581</v>
       </c>
       <c r="S16">
-        <v>0.000812203130520591</v>
+        <v>0.1318894203252354</v>
       </c>
       <c r="T16">
-        <v>0.000812203130520591</v>
+        <v>0.1411013330122795</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H17">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I17">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J17">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N17">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O17">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P17">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q17">
-        <v>15.33228019713467</v>
+        <v>3042.446119435402</v>
       </c>
       <c r="R17">
-        <v>15.33228019713467</v>
+        <v>27382.01507491861</v>
       </c>
       <c r="S17">
-        <v>0.0009182663197150462</v>
+        <v>0.1387968093765532</v>
       </c>
       <c r="T17">
-        <v>0.0009182663197150462</v>
+        <v>0.1484911736861707</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H18">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I18">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J18">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N18">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O18">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P18">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q18">
-        <v>2.738406413165296</v>
+        <v>550.215937265652</v>
       </c>
       <c r="R18">
-        <v>2.738406413165296</v>
+        <v>4951.943435390868</v>
       </c>
       <c r="S18">
-        <v>0.0001640060282339028</v>
+        <v>0.02510092654484681</v>
       </c>
       <c r="T18">
-        <v>0.0001640060282339028</v>
+        <v>0.02685411905357749</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H19">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I19">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J19">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N19">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O19">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P19">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q19">
-        <v>9.037406016848033</v>
+        <v>1842.854738382019</v>
       </c>
       <c r="R19">
-        <v>9.037406016848033</v>
+        <v>11057.12843029211</v>
       </c>
       <c r="S19">
-        <v>0.0005412597119385117</v>
+        <v>0.08407128599514964</v>
       </c>
       <c r="T19">
-        <v>0.0005412597119385117</v>
+        <v>0.05996220415920876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H20">
+        <v>513.335785</v>
+      </c>
+      <c r="I20">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J20">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.7846805</v>
+      </c>
+      <c r="N20">
+        <v>5.569361</v>
+      </c>
+      <c r="O20">
+        <v>0.05544016620420027</v>
+      </c>
+      <c r="P20">
+        <v>0.03953565392176784</v>
+      </c>
+      <c r="Q20">
+        <v>476.4920501472308</v>
+      </c>
+      <c r="R20">
+        <v>2858.952300883385</v>
+      </c>
+      <c r="S20">
+        <v>0.0217376326999675</v>
+      </c>
+      <c r="T20">
+        <v>0.01550394233256457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H21">
+        <v>513.335785</v>
+      </c>
+      <c r="I21">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J21">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.67257133333334</v>
+      </c>
+      <c r="N21">
+        <v>47.01771400000001</v>
+      </c>
+      <c r="O21">
+        <v>0.3120250095359898</v>
+      </c>
+      <c r="P21">
+        <v>0.3337682848888156</v>
+      </c>
+      <c r="Q21">
+        <v>2681.763902788388</v>
+      </c>
+      <c r="R21">
+        <v>24135.87512509549</v>
+      </c>
+      <c r="S21">
+        <v>0.1223424371693772</v>
+      </c>
+      <c r="T21">
+        <v>0.1308875338598116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H22">
+        <v>513.335785</v>
+      </c>
+      <c r="I22">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J22">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>11.031218</v>
+      </c>
+      <c r="N22">
+        <v>33.093654</v>
+      </c>
+      <c r="O22">
+        <v>0.2196203691428032</v>
+      </c>
+      <c r="P22">
+        <v>0.2349244826382646</v>
+      </c>
+      <c r="Q22">
+        <v>1887.572983845377</v>
+      </c>
+      <c r="R22">
+        <v>16988.15685460839</v>
+      </c>
+      <c r="S22">
+        <v>0.08611133848830056</v>
+      </c>
+      <c r="T22">
+        <v>0.09212584768519134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H23">
+        <v>513.335785</v>
+      </c>
+      <c r="I23">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J23">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.60895133333333</v>
+      </c>
+      <c r="N23">
+        <v>34.826854</v>
+      </c>
+      <c r="O23">
+        <v>0.2311224542192443</v>
+      </c>
+      <c r="P23">
+        <v>0.2472280836038346</v>
+      </c>
+      <c r="Q23">
+        <v>1986.430048574488</v>
+      </c>
+      <c r="R23">
+        <v>17877.87043717039</v>
+      </c>
+      <c r="S23">
+        <v>0.09062121134392183</v>
+      </c>
+      <c r="T23">
+        <v>0.09695071589732571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H24">
+        <v>513.335785</v>
+      </c>
+      <c r="I24">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J24">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.099439</v>
+      </c>
+      <c r="N24">
+        <v>6.298317</v>
+      </c>
+      <c r="O24">
+        <v>0.04179770249965122</v>
+      </c>
+      <c r="P24">
+        <v>0.04471035029002197</v>
+      </c>
+      <c r="Q24">
+        <v>359.239055708205</v>
+      </c>
+      <c r="R24">
+        <v>3233.151501373845</v>
+      </c>
+      <c r="S24">
+        <v>0.01638853500715327</v>
+      </c>
+      <c r="T24">
+        <v>0.01753320417911697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H25">
+        <v>513.335785</v>
+      </c>
+      <c r="I25">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J25">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.031714</v>
+      </c>
+      <c r="N25">
+        <v>14.063428</v>
+      </c>
+      <c r="O25">
+        <v>0.1399942983981114</v>
+      </c>
+      <c r="P25">
+        <v>0.09983314465729545</v>
+      </c>
+      <c r="Q25">
+        <v>1203.210142028497</v>
+      </c>
+      <c r="R25">
+        <v>7219.26085217098</v>
+      </c>
+      <c r="S25">
+        <v>0.05489061175356356</v>
+      </c>
+      <c r="T25">
+        <v>0.03914965769146118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.770183</v>
+      </c>
+      <c r="H26">
+        <v>5.310549</v>
+      </c>
+      <c r="I26">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J26">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.7846805</v>
+      </c>
+      <c r="N26">
+        <v>5.569361</v>
+      </c>
+      <c r="O26">
+        <v>0.05544016620420027</v>
+      </c>
+      <c r="P26">
+        <v>0.03953565392176784</v>
+      </c>
+      <c r="Q26">
+        <v>4.9293940815315</v>
+      </c>
+      <c r="R26">
+        <v>29.576364489189</v>
+      </c>
+      <c r="S26">
+        <v>0.0002248796342869019</v>
+      </c>
+      <c r="T26">
+        <v>0.0001603910108278511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.770183</v>
+      </c>
+      <c r="H27">
+        <v>5.310549</v>
+      </c>
+      <c r="I27">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J27">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>15.67257133333334</v>
+      </c>
+      <c r="N27">
+        <v>47.01771400000001</v>
+      </c>
+      <c r="O27">
+        <v>0.3120250095359898</v>
+      </c>
+      <c r="P27">
+        <v>0.3337682848888156</v>
+      </c>
+      <c r="Q27">
+        <v>27.74331934055401</v>
+      </c>
+      <c r="R27">
+        <v>249.689874064986</v>
+      </c>
+      <c r="S27">
+        <v>0.001265654034556346</v>
+      </c>
+      <c r="T27">
+        <v>0.001354054563041399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.770183</v>
+      </c>
+      <c r="H28">
+        <v>5.310549</v>
+      </c>
+      <c r="I28">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J28">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>11.031218</v>
+      </c>
+      <c r="N28">
+        <v>33.093654</v>
+      </c>
+      <c r="O28">
+        <v>0.2196203691428032</v>
+      </c>
+      <c r="P28">
+        <v>0.2349244826382646</v>
+      </c>
+      <c r="Q28">
+        <v>19.527274572894</v>
+      </c>
+      <c r="R28">
+        <v>175.745471156046</v>
+      </c>
+      <c r="S28">
+        <v>0.0008908369450567451</v>
+      </c>
+      <c r="T28">
+        <v>0.0009530581007492886</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.770183</v>
+      </c>
+      <c r="H29">
+        <v>5.310549</v>
+      </c>
+      <c r="I29">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J29">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.60895133333333</v>
+      </c>
+      <c r="N29">
+        <v>34.826854</v>
+      </c>
+      <c r="O29">
+        <v>0.2311224542192443</v>
+      </c>
+      <c r="P29">
+        <v>0.2472280836038346</v>
+      </c>
+      <c r="Q29">
+        <v>20.549968298094</v>
+      </c>
+      <c r="R29">
+        <v>184.949714682846</v>
+      </c>
+      <c r="S29">
+        <v>0.0009374923731086714</v>
+      </c>
+      <c r="T29">
+        <v>0.001002972211177187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.770183</v>
+      </c>
+      <c r="H30">
+        <v>5.310549</v>
+      </c>
+      <c r="I30">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J30">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.099439</v>
+      </c>
+      <c r="N30">
+        <v>6.298317</v>
+      </c>
+      <c r="O30">
+        <v>0.04179770249965122</v>
+      </c>
+      <c r="P30">
+        <v>0.04471035029002197</v>
+      </c>
+      <c r="Q30">
+        <v>3.716391227337</v>
+      </c>
+      <c r="R30">
+        <v>33.447521046033</v>
+      </c>
+      <c r="S30">
+        <v>0.0001695422776608157</v>
+      </c>
+      <c r="T30">
+        <v>0.0001813840816108417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.770183</v>
+      </c>
+      <c r="H31">
+        <v>5.310549</v>
+      </c>
+      <c r="I31">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J31">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>7.031714</v>
+      </c>
+      <c r="N31">
+        <v>14.063428</v>
+      </c>
+      <c r="O31">
+        <v>0.1399942983981114</v>
+      </c>
+      <c r="P31">
+        <v>0.09983314465729545</v>
+      </c>
+      <c r="Q31">
+        <v>12.447420583662</v>
+      </c>
+      <c r="R31">
+        <v>74.684523501972</v>
+      </c>
+      <c r="S31">
+        <v>0.0005678530347485423</v>
+      </c>
+      <c r="T31">
+        <v>0.0004050100958843761</v>
       </c>
     </row>
   </sheetData>
